--- a/Code/Results/Cases/Case_4_71/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_71/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.194677553201871</v>
+        <v>0.66533855846194</v>
       </c>
       <c r="C2">
-        <v>0.3291864017182888</v>
+        <v>0.2069052540594214</v>
       </c>
       <c r="D2">
-        <v>0.5500205781689829</v>
+        <v>0.6670649011318801</v>
       </c>
       <c r="E2">
-        <v>0.2453765628937532</v>
+        <v>0.2718899746259495</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.183800800929347</v>
+        <v>1.706659762225328</v>
       </c>
       <c r="H2">
-        <v>0.7748301188320283</v>
+        <v>1.497637982732471</v>
       </c>
       <c r="I2">
-        <v>0.6791158275235745</v>
+        <v>1.192978001255106</v>
       </c>
       <c r="J2">
-        <v>0.145227318854154</v>
+        <v>0.1413534793413191</v>
       </c>
       <c r="K2">
-        <v>1.496824814813976</v>
+        <v>0.8615377913285158</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.15509091680908</v>
+        <v>2.29462689587843</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.037566467937978</v>
+        <v>0.6255790943371551</v>
       </c>
       <c r="C3">
-        <v>0.2867674264797699</v>
+        <v>0.196803071248155</v>
       </c>
       <c r="D3">
-        <v>0.4961826922270802</v>
+        <v>0.6572865029390016</v>
       </c>
       <c r="E3">
-        <v>0.2200475123049515</v>
+        <v>0.2670595435830023</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.11828227700191</v>
+        <v>1.700031355704311</v>
       </c>
       <c r="H3">
-        <v>0.7526844790348974</v>
+        <v>1.500133733699911</v>
       </c>
       <c r="I3">
-        <v>0.6605418188414944</v>
+        <v>1.19479847644493</v>
       </c>
       <c r="J3">
-        <v>0.1292458657483664</v>
+        <v>0.1381284282075654</v>
       </c>
       <c r="K3">
-        <v>1.300807953037463</v>
+        <v>0.8127085917121519</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.199296689810055</v>
+        <v>2.313420468893788</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9420701751257639</v>
+        <v>0.6015062699190423</v>
       </c>
       <c r="C4">
-        <v>0.2611171489474771</v>
+        <v>0.1907191670383668</v>
       </c>
       <c r="D4">
-        <v>0.4638985864664846</v>
+        <v>0.6516295603923652</v>
       </c>
       <c r="E4">
-        <v>0.2048491323203834</v>
+        <v>0.2642417031785484</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.08032779045493</v>
+        <v>1.696870084748966</v>
       </c>
       <c r="H4">
-        <v>0.7403613718753803</v>
+        <v>1.502289647577683</v>
       </c>
       <c r="I4">
-        <v>0.6503654092662927</v>
+        <v>1.19646012682432</v>
       </c>
       <c r="J4">
-        <v>0.119649188477716</v>
+        <v>0.1362298764566034</v>
       </c>
       <c r="K4">
-        <v>1.181817297273341</v>
+        <v>0.7831831601621388</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.22798012128419</v>
+        <v>2.325651018500324</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9033675501769096</v>
+        <v>0.5917819473527572</v>
       </c>
       <c r="C5">
-        <v>0.2507521350281081</v>
+        <v>0.188269749428116</v>
       </c>
       <c r="D5">
-        <v>0.4509205822234321</v>
+        <v>0.6494115604354249</v>
       </c>
       <c r="E5">
-        <v>0.1987367770452764</v>
+        <v>0.2631306127431259</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.065394059142676</v>
+        <v>1.69580998607249</v>
       </c>
       <c r="H5">
-        <v>0.7356423825347918</v>
+        <v>1.503324967112064</v>
       </c>
       <c r="I5">
-        <v>0.6465096644293666</v>
+        <v>1.197273915937195</v>
       </c>
       <c r="J5">
-        <v>0.1157876536711981</v>
+        <v>0.1354766944674139</v>
       </c>
       <c r="K5">
-        <v>1.133628172067745</v>
+        <v>0.7712659949647502</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.240043186819676</v>
+        <v>2.330808748098832</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8969529943455825</v>
+        <v>0.590172402243752</v>
       </c>
       <c r="C6">
-        <v>0.2490360017683031</v>
+        <v>0.1878648247210606</v>
       </c>
       <c r="D6">
-        <v>0.4487758924164496</v>
+        <v>0.6490485325694806</v>
       </c>
       <c r="E6">
-        <v>0.1977265041504737</v>
+        <v>0.2629483631246998</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.062945430650814</v>
+        <v>1.695647727353631</v>
       </c>
       <c r="H6">
-        <v>0.7348765897922647</v>
+        <v>1.503506348956577</v>
       </c>
       <c r="I6">
-        <v>0.6458865172174981</v>
+        <v>1.197417295408414</v>
       </c>
       <c r="J6">
-        <v>0.1151492762407784</v>
+        <v>0.1353528658651584</v>
       </c>
       <c r="K6">
-        <v>1.125643364455016</v>
+        <v>0.7692940872723568</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.242068490951155</v>
+        <v>2.331675671303465</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9415473957211873</v>
+        <v>0.6013747777302569</v>
       </c>
       <c r="C7">
-        <v>0.2609770225816419</v>
+        <v>0.1906860126768777</v>
       </c>
       <c r="D7">
-        <v>0.4637228604155155</v>
+        <v>0.6515992944131597</v>
       </c>
       <c r="E7">
-        <v>0.2047663805541546</v>
+        <v>0.2642265680307929</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.080124280192322</v>
+        <v>1.696854864578782</v>
       </c>
       <c r="H7">
-        <v>0.7402965265295762</v>
+        <v>1.502302975548659</v>
       </c>
       <c r="I7">
-        <v>0.6503122526112506</v>
+        <v>1.196470548713336</v>
       </c>
       <c r="J7">
-        <v>0.1195969178315792</v>
+        <v>0.1362196358518233</v>
       </c>
       <c r="K7">
-        <v>1.181166239270112</v>
+        <v>0.7830219766691755</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.228141309056689</v>
+        <v>2.32571987440069</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.140284768422077</v>
+        <v>0.6515590715424366</v>
       </c>
       <c r="C8">
-        <v>0.3144710318788668</v>
+        <v>0.2033973025556293</v>
       </c>
       <c r="D8">
-        <v>0.531286801676913</v>
+        <v>0.6636212686698855</v>
       </c>
       <c r="E8">
-        <v>0.2365647890362013</v>
+        <v>0.2701936912048666</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.160713826073362</v>
+        <v>1.704185502637358</v>
       </c>
       <c r="H8">
-        <v>0.7669187811070515</v>
+        <v>1.498369092089106</v>
       </c>
       <c r="I8">
-        <v>0.6724456607362086</v>
+        <v>1.193492752974073</v>
       </c>
       <c r="J8">
-        <v>0.1396688853421679</v>
+        <v>0.1402245133428366</v>
       </c>
       <c r="K8">
-        <v>1.428928427103841</v>
+        <v>0.8446068734805863</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.170005072489943</v>
+        <v>2.300963379090923</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.539242098382118</v>
+        <v>0.752665008631368</v>
       </c>
       <c r="C9">
-        <v>0.4230828998627771</v>
+        <v>0.2292720640538732</v>
       </c>
       <c r="D9">
-        <v>0.6707056708702055</v>
+        <v>0.6899527037633675</v>
       </c>
       <c r="E9">
-        <v>0.3021131927818956</v>
+        <v>0.2830723440769489</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.338690057681504</v>
+        <v>1.725788074391858</v>
       </c>
       <c r="H9">
-        <v>0.8301005132305193</v>
+        <v>1.49560433612848</v>
       </c>
       <c r="I9">
-        <v>0.7264513473037297</v>
+        <v>1.191974697187632</v>
       </c>
       <c r="J9">
-        <v>0.1809953514080362</v>
+        <v>0.1487281130066336</v>
       </c>
       <c r="K9">
-        <v>1.927710596547655</v>
+        <v>0.968997299568656</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.068863549530342</v>
+        <v>2.257905893508656</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.840325411325239</v>
+        <v>0.8285987903032037</v>
       </c>
       <c r="C10">
-        <v>0.5060214980425428</v>
+        <v>0.2488689719054946</v>
       </c>
       <c r="D10">
-        <v>0.7785714145848033</v>
+        <v>0.710985832330465</v>
       </c>
       <c r="E10">
-        <v>0.3528038727997966</v>
+        <v>0.2932565610704643</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.484483174760072</v>
+        <v>1.746094567214499</v>
       </c>
       <c r="H10">
-        <v>0.8845225523242561</v>
+        <v>1.496595617483734</v>
       </c>
       <c r="I10">
-        <v>0.7738922646519768</v>
+        <v>1.193503826534432</v>
       </c>
       <c r="J10">
-        <v>0.2129396588921679</v>
+        <v>0.1553759805843242</v>
       </c>
       <c r="K10">
-        <v>2.305241691843491</v>
+        <v>1.06261364406032</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.003358187562064</v>
+        <v>2.229625103981213</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.979603785079121</v>
+        <v>0.8635040115800052</v>
       </c>
       <c r="C11">
-        <v>0.5446531641805734</v>
+        <v>0.2579135709413833</v>
       </c>
       <c r="D11">
-        <v>0.829121922266296</v>
+        <v>0.7209225061036193</v>
       </c>
       <c r="E11">
-        <v>0.376559306232032</v>
+        <v>0.2980475650531318</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.554783801106367</v>
+        <v>1.756302191079698</v>
       </c>
       <c r="H11">
-        <v>0.9113425241502568</v>
+        <v>1.497704195228096</v>
       </c>
       <c r="I11">
-        <v>0.7974808131710986</v>
+        <v>1.194775994267523</v>
       </c>
       <c r="J11">
-        <v>0.2279104763057518</v>
+        <v>0.1584881035638261</v>
       </c>
       <c r="K11">
-        <v>2.480186074966468</v>
+        <v>1.105690314012264</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9757081649805954</v>
+        <v>2.217489134926502</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.032730528136597</v>
+        <v>0.8767738586766995</v>
       </c>
       <c r="C12">
-        <v>0.5594319935986789</v>
+        <v>0.2613573204668285</v>
       </c>
       <c r="D12">
-        <v>0.8485047699274162</v>
+        <v>0.7247383520348478</v>
       </c>
       <c r="E12">
-        <v>0.3856683437575441</v>
+        <v>0.2998845976263169</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.582042773601728</v>
+        <v>1.760307516176198</v>
       </c>
       <c r="H12">
-        <v>0.9218252903874031</v>
+        <v>1.498218633026852</v>
       </c>
       <c r="I12">
-        <v>0.8067315658078442</v>
+        <v>1.1953408050436</v>
       </c>
       <c r="J12">
-        <v>0.2336514838258807</v>
+        <v>0.1596792916164844</v>
       </c>
       <c r="K12">
-        <v>2.546966298779836</v>
+        <v>1.12207295916923</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9655692248068917</v>
+        <v>2.212998568002021</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.021270720775192</v>
+        <v>0.87391364924963</v>
       </c>
       <c r="C13">
-        <v>0.5562421012591585</v>
+        <v>0.2606148118922249</v>
       </c>
       <c r="D13">
-        <v>0.8443191667894041</v>
+        <v>0.723914181578948</v>
       </c>
       <c r="E13">
-        <v>0.3837012814295875</v>
+        <v>0.2994879458311388</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.576142592780712</v>
+        <v>1.759438668045817</v>
       </c>
       <c r="H13">
-        <v>0.9195526032423231</v>
+        <v>1.498103629104804</v>
       </c>
       <c r="I13">
-        <v>0.8047245920438471</v>
+        <v>1.195215465867953</v>
       </c>
       <c r="J13">
-        <v>0.2324117095396332</v>
+        <v>0.1594221826530031</v>
       </c>
       <c r="K13">
-        <v>2.532559073925881</v>
+        <v>1.118541530835131</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9677376988740889</v>
+        <v>2.213961015805815</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.983966519534675</v>
+        <v>0.8645946885644662</v>
       </c>
       <c r="C14">
-        <v>0.5458659015947092</v>
+        <v>0.2581965139133047</v>
       </c>
       <c r="D14">
-        <v>0.8307115749423133</v>
+        <v>0.7212353747461862</v>
       </c>
       <c r="E14">
-        <v>0.3773063592455159</v>
+        <v>0.2981982419767846</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.557013235047208</v>
+        <v>1.756628904965424</v>
       </c>
       <c r="H14">
-        <v>0.9121982193337885</v>
+        <v>1.497744621094228</v>
       </c>
       <c r="I14">
-        <v>0.7982353192552694</v>
+        <v>1.194820795848869</v>
       </c>
       <c r="J14">
-        <v>0.228381298622466</v>
+        <v>0.1585858486483005</v>
       </c>
       <c r="K14">
-        <v>2.485669012970476</v>
+        <v>1.107036712441669</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9748672467706001</v>
+        <v>2.21711758644232</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.961168402430673</v>
+        <v>0.8588933236001139</v>
       </c>
       <c r="C15">
-        <v>0.5395303266885776</v>
+        <v>0.2567176816241101</v>
       </c>
       <c r="D15">
-        <v>0.822408706872892</v>
+        <v>0.7196014372095476</v>
       </c>
       <c r="E15">
-        <v>0.3734044659959252</v>
+        <v>0.2974112294303453</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.545381048054509</v>
+        <v>1.754926078157126</v>
       </c>
       <c r="H15">
-        <v>0.9077369229793533</v>
+        <v>1.497537045998484</v>
       </c>
       <c r="I15">
-        <v>0.7943028306421809</v>
+        <v>1.194589871824178</v>
       </c>
       <c r="J15">
-        <v>0.2259221911237717</v>
+        <v>0.1580752244522614</v>
       </c>
       <c r="K15">
-        <v>2.457019110715549</v>
+        <v>1.099998852087225</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9792781828164436</v>
+        <v>2.219064765681431</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.831274162141085</v>
+        <v>0.8263249357490565</v>
       </c>
       <c r="C16">
-        <v>0.5035166581816668</v>
+        <v>0.2482805062735736</v>
       </c>
       <c r="D16">
-        <v>0.7752999183664713</v>
+        <v>0.710343867772707</v>
       </c>
       <c r="E16">
-        <v>0.3512665105978172</v>
+        <v>0.2929466436258181</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.479974379600435</v>
+        <v>1.74544703168317</v>
       </c>
       <c r="H16">
-        <v>0.8828138127790908</v>
+        <v>1.496536409101083</v>
       </c>
       <c r="I16">
-        <v>0.7723935585532189</v>
+        <v>1.193432302838872</v>
       </c>
       <c r="J16">
-        <v>0.2119708447749531</v>
+        <v>0.1551743700487123</v>
       </c>
       <c r="K16">
-        <v>2.293879116811809</v>
+        <v>1.059808341897366</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.005210294971498</v>
+        <v>2.230432907972521</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.752216579989835</v>
+        <v>0.8064380458517917</v>
       </c>
       <c r="C17">
-        <v>0.4816682403537698</v>
+        <v>0.2431378920442739</v>
       </c>
       <c r="D17">
-        <v>0.7467983905058588</v>
+        <v>0.7047590828314014</v>
       </c>
       <c r="E17">
-        <v>0.3378728999193541</v>
+        <v>0.2902483005069172</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.440913163189322</v>
+        <v>1.739880706845724</v>
       </c>
       <c r="H17">
-        <v>0.8680731036108682</v>
+        <v>1.496091040785927</v>
       </c>
       <c r="I17">
-        <v>0.7594872621949236</v>
+        <v>1.192869955383649</v>
       </c>
       <c r="J17">
-        <v>0.2035305733585773</v>
+        <v>0.1534173533466401</v>
       </c>
       <c r="K17">
-        <v>2.194667514710517</v>
+        <v>1.035278272486778</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.021684482809526</v>
+        <v>2.237593788968489</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.706959145008199</v>
+        <v>0.7950337669869612</v>
       </c>
       <c r="C18">
-        <v>0.4691852367416232</v>
+        <v>0.2401922151268536</v>
       </c>
       <c r="D18">
-        <v>0.7305427530903046</v>
+        <v>0.701581553963706</v>
       </c>
       <c r="E18">
-        <v>0.3302338895517423</v>
+        <v>0.2887111684634576</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.418816384658697</v>
+        <v>1.736770388813142</v>
       </c>
       <c r="H18">
-        <v>0.8597868682746821</v>
+        <v>1.495896772032012</v>
       </c>
       <c r="I18">
-        <v>0.7522509160964788</v>
+        <v>1.192600766727104</v>
       </c>
       <c r="J18">
-        <v>0.1987167194940156</v>
+        <v>0.1524150417399568</v>
       </c>
       <c r="K18">
-        <v>2.137900459705691</v>
+        <v>1.021215359999218</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.031360769011584</v>
+        <v>2.2417811517358</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.691671065712057</v>
+        <v>0.7911783409929285</v>
       </c>
       <c r="C19">
-        <v>0.4649724905083872</v>
+        <v>0.239196955666273</v>
       </c>
       <c r="D19">
-        <v>0.7250617302606486</v>
+        <v>0.7005116544609962</v>
       </c>
       <c r="E19">
-        <v>0.3276581701205075</v>
+        <v>0.2881932769892899</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.411396483749741</v>
+        <v>1.735732954096534</v>
       </c>
       <c r="H19">
-        <v>0.8570134419092028</v>
+        <v>1.495841624304489</v>
       </c>
       <c r="I19">
-        <v>0.7498320774481897</v>
+        <v>1.192518938237953</v>
       </c>
       <c r="J19">
-        <v>0.1970935811393986</v>
+        <v>0.1520770966641862</v>
       </c>
       <c r="K19">
-        <v>2.118729014068663</v>
+        <v>1.0164618242637</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.034670824751558</v>
+        <v>2.243210698720134</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.76060984272425</v>
+        <v>0.8085515074848502</v>
       </c>
       <c r="C20">
-        <v>0.4839852475342923</v>
+        <v>0.2436840669272726</v>
       </c>
       <c r="D20">
-        <v>0.7498179868075567</v>
+        <v>0.7053500019838168</v>
       </c>
       <c r="E20">
-        <v>0.3392918905257005</v>
+        <v>0.2905340030527981</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.445032527723583</v>
+        <v>1.740463800956377</v>
       </c>
       <c r="H20">
-        <v>0.8696221745014157</v>
+        <v>1.496132044523335</v>
       </c>
       <c r="I20">
-        <v>0.7608415988280086</v>
+        <v>1.192924201499252</v>
       </c>
       <c r="J20">
-        <v>0.2044247749701924</v>
+        <v>0.1536035337234125</v>
       </c>
       <c r="K20">
-        <v>2.205197539327258</v>
+        <v>1.037884765754995</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.019909842380372</v>
+        <v>2.236824398162163</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.994912775473694</v>
+        <v>0.8673304831065991</v>
       </c>
       <c r="C21">
-        <v>0.548909405529912</v>
+        <v>0.2589063169565975</v>
       </c>
       <c r="D21">
-        <v>0.8347016965557543</v>
+        <v>0.7220207653467412</v>
       </c>
       <c r="E21">
-        <v>0.3791815135266035</v>
+        <v>0.2985764405951556</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.562614130706521</v>
+        <v>1.757450399741657</v>
       </c>
       <c r="H21">
-        <v>0.9143492620410143</v>
+        <v>1.497847501232059</v>
       </c>
       <c r="I21">
-        <v>0.8001324873369384</v>
+        <v>1.194934464257926</v>
       </c>
       <c r="J21">
-        <v>0.2295631031154528</v>
+        <v>0.1588311553363724</v>
       </c>
       <c r="K21">
-        <v>2.499426697635045</v>
+        <v>1.110414044871646</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9727639372546477</v>
+        <v>2.216187572047978</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.150315698115833</v>
+        <v>0.9060489602027815</v>
       </c>
       <c r="C22">
-        <v>0.5922254373198825</v>
+        <v>0.2689643015053491</v>
       </c>
       <c r="D22">
-        <v>0.8915944643139539</v>
+        <v>0.7332252692539498</v>
       </c>
       <c r="E22">
-        <v>0.4059196562386163</v>
+        <v>0.303965457050154</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.643212488091308</v>
+        <v>1.769367880436903</v>
       </c>
       <c r="H22">
-        <v>0.9455009469439233</v>
+        <v>1.499520343418254</v>
       </c>
       <c r="I22">
-        <v>0.8276824598196058</v>
+        <v>1.196732549886683</v>
       </c>
       <c r="J22">
-        <v>0.2464161595684971</v>
+        <v>0.1623217230893346</v>
       </c>
       <c r="K22">
-        <v>2.694865453624573</v>
+        <v>1.158226717500497</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.9438958945984339</v>
+        <v>2.203312694049096</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.067147663081414</v>
+        <v>0.8853564989311735</v>
       </c>
       <c r="C23">
-        <v>0.5690187476095048</v>
+        <v>0.2635861317243098</v>
       </c>
       <c r="D23">
-        <v>0.8610903531378256</v>
+        <v>0.727216909602646</v>
       </c>
       <c r="E23">
-        <v>0.3915831400785734</v>
+        <v>0.301077070758403</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.599828924178837</v>
+        <v>1.762932514728902</v>
       </c>
       <c r="H23">
-        <v>0.9286883339745771</v>
+        <v>1.498577010320787</v>
       </c>
       <c r="I23">
-        <v>0.8127967477249385</v>
+        <v>1.195728514146019</v>
       </c>
       <c r="J23">
-        <v>0.2373794754990541</v>
+        <v>0.1604519543317622</v>
       </c>
       <c r="K23">
-        <v>2.590242854335031</v>
+        <v>1.132670634700673</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.9591173283007564</v>
+        <v>2.21012814386134</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.756814648818562</v>
+        <v>0.8075959212657722</v>
       </c>
       <c r="C24">
-        <v>0.4829374873056622</v>
+        <v>0.2434371073785542</v>
       </c>
       <c r="D24">
-        <v>0.7484524235915444</v>
+        <v>0.7050827439074112</v>
       </c>
       <c r="E24">
-        <v>0.3386501753768627</v>
+        <v>0.290404792763411</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.443169046462486</v>
+        <v>1.740199904294911</v>
       </c>
       <c r="H24">
-        <v>0.8689212549717809</v>
+        <v>1.496113314286163</v>
       </c>
       <c r="I24">
-        <v>0.7602287333929425</v>
+        <v>1.192899508275389</v>
       </c>
       <c r="J24">
-        <v>0.204020386931532</v>
+        <v>0.1535193372192651</v>
       </c>
       <c r="K24">
-        <v>2.200436076388996</v>
+        <v>1.036706246325963</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.020711520291037</v>
+        <v>2.237172020209016</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.430095515600158</v>
+        <v>0.725023824914274</v>
       </c>
       <c r="C25">
-        <v>0.3932173107646975</v>
+        <v>0.222169863869766</v>
       </c>
       <c r="D25">
-        <v>0.6321288754032821</v>
+        <v>0.6825335417140082</v>
       </c>
       <c r="E25">
-        <v>0.283981467834181</v>
+        <v>0.2794618286708896</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.288126106097522</v>
+        <v>1.719167285125209</v>
       </c>
       <c r="H25">
-        <v>0.8117047533517621</v>
+        <v>1.495821869013156</v>
       </c>
       <c r="I25">
-        <v>0.7105789992603135</v>
+        <v>1.191921711918049</v>
       </c>
       <c r="J25">
-        <v>0.169567494708879</v>
+        <v>0.1463576620546618</v>
       </c>
       <c r="K25">
-        <v>1.791080059821525</v>
+        <v>0.9349566990196649</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.094753950556672</v>
+        <v>2.268965670551914</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_71/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_71/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.66533855846194</v>
+        <v>1.194677553201814</v>
       </c>
       <c r="C2">
-        <v>0.2069052540594214</v>
+        <v>0.3291864017181751</v>
       </c>
       <c r="D2">
-        <v>0.6670649011318801</v>
+        <v>0.5500205781689829</v>
       </c>
       <c r="E2">
-        <v>0.2718899746259495</v>
+        <v>0.2453765628937177</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.706659762225328</v>
+        <v>1.18380080092939</v>
       </c>
       <c r="H2">
-        <v>1.497637982732471</v>
+        <v>0.7748301188321562</v>
       </c>
       <c r="I2">
-        <v>1.192978001255106</v>
+        <v>0.6791158275235958</v>
       </c>
       <c r="J2">
-        <v>0.1413534793413191</v>
+        <v>0.1452273188541326</v>
       </c>
       <c r="K2">
-        <v>0.8615377913285158</v>
+        <v>1.496824814813976</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.29462689587843</v>
+        <v>1.155090916809066</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6255790943371551</v>
+        <v>1.037566467937864</v>
       </c>
       <c r="C3">
-        <v>0.196803071248155</v>
+        <v>0.2867674264797699</v>
       </c>
       <c r="D3">
-        <v>0.6572865029390016</v>
+        <v>0.4961826922271371</v>
       </c>
       <c r="E3">
-        <v>0.2670595435830023</v>
+        <v>0.2200475123049515</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.700031355704311</v>
+        <v>1.118282277001896</v>
       </c>
       <c r="H3">
-        <v>1.500133733699911</v>
+        <v>0.7526844790350111</v>
       </c>
       <c r="I3">
-        <v>1.19479847644493</v>
+        <v>0.6605418188414802</v>
       </c>
       <c r="J3">
-        <v>0.1381284282075654</v>
+        <v>0.129245865748409</v>
       </c>
       <c r="K3">
-        <v>0.8127085917121519</v>
+        <v>1.300807953037435</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.313420468893788</v>
+        <v>1.199296689810105</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6015062699190423</v>
+        <v>0.9420701751257639</v>
       </c>
       <c r="C4">
-        <v>0.1907191670383668</v>
+        <v>0.2611171489478181</v>
       </c>
       <c r="D4">
-        <v>0.6516295603923652</v>
+        <v>0.4638985864664562</v>
       </c>
       <c r="E4">
-        <v>0.2642417031785484</v>
+        <v>0.2048491323203763</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.696870084748966</v>
+        <v>1.080327790454973</v>
       </c>
       <c r="H4">
-        <v>1.502289647577683</v>
+        <v>0.7403613718753803</v>
       </c>
       <c r="I4">
-        <v>1.19646012682432</v>
+        <v>0.6503654092662998</v>
       </c>
       <c r="J4">
-        <v>0.1362298764566034</v>
+        <v>0.1196491884777586</v>
       </c>
       <c r="K4">
-        <v>0.7831831601621388</v>
+        <v>1.181817297273341</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.325651018500324</v>
+        <v>1.227980121284126</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5917819473527572</v>
+        <v>0.9033675501767675</v>
       </c>
       <c r="C5">
-        <v>0.188269749428116</v>
+        <v>0.2507521350278807</v>
       </c>
       <c r="D5">
-        <v>0.6494115604354249</v>
+        <v>0.4509205822233753</v>
       </c>
       <c r="E5">
-        <v>0.2631306127431259</v>
+        <v>0.1987367770452764</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.69580998607249</v>
+        <v>1.065394059142577</v>
       </c>
       <c r="H5">
-        <v>1.503324967112064</v>
+        <v>0.7356423825347918</v>
       </c>
       <c r="I5">
-        <v>1.197273915937195</v>
+        <v>0.6465096644293595</v>
       </c>
       <c r="J5">
-        <v>0.1354766944674139</v>
+        <v>0.1157876536712124</v>
       </c>
       <c r="K5">
-        <v>0.7712659949647502</v>
+        <v>1.13362817206766</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.330808748098832</v>
+        <v>1.240043186819726</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.590172402243752</v>
+        <v>0.8969529943454404</v>
       </c>
       <c r="C6">
-        <v>0.1878648247210606</v>
+        <v>0.2490360017678483</v>
       </c>
       <c r="D6">
-        <v>0.6490485325694806</v>
+        <v>0.4487758924163359</v>
       </c>
       <c r="E6">
-        <v>0.2629483631246998</v>
+        <v>0.1977265041504594</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.695647727353631</v>
+        <v>1.062945430650785</v>
       </c>
       <c r="H6">
-        <v>1.503506348956577</v>
+        <v>0.734876589792421</v>
       </c>
       <c r="I6">
-        <v>1.197417295408414</v>
+        <v>0.6458865172175052</v>
       </c>
       <c r="J6">
-        <v>0.1353528658651584</v>
+        <v>0.1151492762407571</v>
       </c>
       <c r="K6">
-        <v>0.7692940872723568</v>
+        <v>1.125643364455044</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.331675671303465</v>
+        <v>1.242068490951148</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6013747777302569</v>
+        <v>0.9415473957211873</v>
       </c>
       <c r="C7">
-        <v>0.1906860126768777</v>
+        <v>0.2609770225822103</v>
       </c>
       <c r="D7">
-        <v>0.6515992944131597</v>
+        <v>0.4637228604152881</v>
       </c>
       <c r="E7">
-        <v>0.2642265680307929</v>
+        <v>0.2047663805541617</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.696854864578782</v>
+        <v>1.080124280192251</v>
       </c>
       <c r="H7">
-        <v>1.502302975548659</v>
+        <v>0.7402965265295762</v>
       </c>
       <c r="I7">
-        <v>1.196470548713336</v>
+        <v>0.6503122526112506</v>
       </c>
       <c r="J7">
-        <v>0.1362196358518233</v>
+        <v>0.1195969178316574</v>
       </c>
       <c r="K7">
-        <v>0.7830219766691755</v>
+        <v>1.181166239270055</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.32571987440069</v>
+        <v>1.228141309056738</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6515590715424366</v>
+        <v>1.140284768422077</v>
       </c>
       <c r="C8">
-        <v>0.2033973025556293</v>
+        <v>0.3144710318790089</v>
       </c>
       <c r="D8">
-        <v>0.6636212686698855</v>
+        <v>0.5312868016767709</v>
       </c>
       <c r="E8">
-        <v>0.2701936912048666</v>
+        <v>0.2365647890362368</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.704185502637358</v>
+        <v>1.160713826073405</v>
       </c>
       <c r="H8">
-        <v>1.498369092089106</v>
+        <v>0.7669187811070088</v>
       </c>
       <c r="I8">
-        <v>1.193492752974073</v>
+        <v>0.6724456607362015</v>
       </c>
       <c r="J8">
-        <v>0.1402245133428366</v>
+        <v>0.1396688853420969</v>
       </c>
       <c r="K8">
-        <v>0.8446068734805863</v>
+        <v>1.428928427103756</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.300963379090923</v>
+        <v>1.170005072489978</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.752665008631368</v>
+        <v>1.539242098382118</v>
       </c>
       <c r="C9">
-        <v>0.2292720640538732</v>
+        <v>0.4230828998626066</v>
       </c>
       <c r="D9">
-        <v>0.6899527037633675</v>
+        <v>0.6707056708701202</v>
       </c>
       <c r="E9">
-        <v>0.2830723440769489</v>
+        <v>0.3021131927818885</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.725788074391858</v>
+        <v>1.338690057681475</v>
       </c>
       <c r="H9">
-        <v>1.49560433612848</v>
+        <v>0.8301005132306329</v>
       </c>
       <c r="I9">
-        <v>1.191974697187632</v>
+        <v>0.7264513473037297</v>
       </c>
       <c r="J9">
-        <v>0.1487281130066336</v>
+        <v>0.1809953514081357</v>
       </c>
       <c r="K9">
-        <v>0.968997299568656</v>
+        <v>1.927710596547655</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.257905893508656</v>
+        <v>1.068863549530334</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8285987903032037</v>
+        <v>1.840325411325239</v>
       </c>
       <c r="C10">
-        <v>0.2488689719054946</v>
+        <v>0.5060214980424576</v>
       </c>
       <c r="D10">
-        <v>0.710985832330465</v>
+        <v>0.7785714145850307</v>
       </c>
       <c r="E10">
-        <v>0.2932565610704643</v>
+        <v>0.3528038727997966</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.746094567214499</v>
+        <v>1.484483174760015</v>
       </c>
       <c r="H10">
-        <v>1.496595617483734</v>
+        <v>0.8845225523242561</v>
       </c>
       <c r="I10">
-        <v>1.193503826534432</v>
+        <v>0.7738922646519697</v>
       </c>
       <c r="J10">
-        <v>0.1553759805843242</v>
+        <v>0.2129396588921963</v>
       </c>
       <c r="K10">
-        <v>1.06261364406032</v>
+        <v>2.305241691843406</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.229625103981213</v>
+        <v>1.003358187562057</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8635040115800052</v>
+        <v>1.979603785079007</v>
       </c>
       <c r="C11">
-        <v>0.2579135709413833</v>
+        <v>0.5446531641804597</v>
       </c>
       <c r="D11">
-        <v>0.7209225061036193</v>
+        <v>0.8291219222664949</v>
       </c>
       <c r="E11">
-        <v>0.2980475650531318</v>
+        <v>0.3765593062320249</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.756302191079698</v>
+        <v>1.554783801106424</v>
       </c>
       <c r="H11">
-        <v>1.497704195228096</v>
+        <v>0.9113425241502568</v>
       </c>
       <c r="I11">
-        <v>1.194775994267523</v>
+        <v>0.7974808131711129</v>
       </c>
       <c r="J11">
-        <v>0.1584881035638261</v>
+        <v>0.2279104763057944</v>
       </c>
       <c r="K11">
-        <v>1.105690314012264</v>
+        <v>2.480186074966412</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.217489134926502</v>
+        <v>0.9757081649806381</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8767738586766995</v>
+        <v>2.032730528136653</v>
       </c>
       <c r="C12">
-        <v>0.2613573204668285</v>
+        <v>0.5594319935989063</v>
       </c>
       <c r="D12">
-        <v>0.7247383520348478</v>
+        <v>0.8485047699273025</v>
       </c>
       <c r="E12">
-        <v>0.2998845976263169</v>
+        <v>0.3856683437575725</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.760307516176198</v>
+        <v>1.582042773601728</v>
       </c>
       <c r="H12">
-        <v>1.498218633026852</v>
+        <v>0.9218252903874031</v>
       </c>
       <c r="I12">
-        <v>1.1953408050436</v>
+        <v>0.8067315658078584</v>
       </c>
       <c r="J12">
-        <v>0.1596792916164844</v>
+        <v>0.2336514838259092</v>
       </c>
       <c r="K12">
-        <v>1.12207295916923</v>
+        <v>2.546966298779807</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.212998568002021</v>
+        <v>0.9655692248069414</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.87391364924963</v>
+        <v>2.021270720775249</v>
       </c>
       <c r="C13">
-        <v>0.2606148118922249</v>
+        <v>0.556242101259329</v>
       </c>
       <c r="D13">
-        <v>0.723914181578948</v>
+        <v>0.8443191667893188</v>
       </c>
       <c r="E13">
-        <v>0.2994879458311388</v>
+        <v>0.3837012814295946</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.759438668045817</v>
+        <v>1.576142592780542</v>
       </c>
       <c r="H13">
-        <v>1.498103629104804</v>
+        <v>0.9195526032422094</v>
       </c>
       <c r="I13">
-        <v>1.195215465867953</v>
+        <v>0.8047245920438471</v>
       </c>
       <c r="J13">
-        <v>0.1594221826530031</v>
+        <v>0.232411709539619</v>
       </c>
       <c r="K13">
-        <v>1.118541530835131</v>
+        <v>2.532559073925853</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.213961015805815</v>
+        <v>0.9677376988740818</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8645946885644662</v>
+        <v>1.983966519534704</v>
       </c>
       <c r="C14">
-        <v>0.2581965139133047</v>
+        <v>0.545865901594567</v>
       </c>
       <c r="D14">
-        <v>0.7212353747461862</v>
+        <v>0.8307115749423133</v>
       </c>
       <c r="E14">
-        <v>0.2981982419767846</v>
+        <v>0.3773063592455017</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.756628904965424</v>
+        <v>1.557013235047151</v>
       </c>
       <c r="H14">
-        <v>1.497744621094228</v>
+        <v>0.9121982193337885</v>
       </c>
       <c r="I14">
-        <v>1.194820795848869</v>
+        <v>0.7982353192552694</v>
       </c>
       <c r="J14">
-        <v>0.1585858486483005</v>
+        <v>0.2283812986224945</v>
       </c>
       <c r="K14">
-        <v>1.107036712441669</v>
+        <v>2.485669012970504</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.21711758644232</v>
+        <v>0.9748672467705575</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8588933236001139</v>
+        <v>1.961168402430729</v>
       </c>
       <c r="C15">
-        <v>0.2567176816241101</v>
+        <v>0.5395303266887197</v>
       </c>
       <c r="D15">
-        <v>0.7196014372095476</v>
+        <v>0.8224087068728636</v>
       </c>
       <c r="E15">
-        <v>0.2974112294303453</v>
+        <v>0.3734044659959252</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.754926078157126</v>
+        <v>1.54538104805448</v>
       </c>
       <c r="H15">
-        <v>1.497537045998484</v>
+        <v>0.907736922979467</v>
       </c>
       <c r="I15">
-        <v>1.194589871824178</v>
+        <v>0.7943028306421738</v>
       </c>
       <c r="J15">
-        <v>0.1580752244522614</v>
+        <v>0.2259221911237006</v>
       </c>
       <c r="K15">
-        <v>1.099998852087225</v>
+        <v>2.457019110715549</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.219064765681431</v>
+        <v>0.9792781828164365</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8263249357490565</v>
+        <v>1.831274162141227</v>
       </c>
       <c r="C16">
-        <v>0.2482805062735736</v>
+        <v>0.5035166581817521</v>
       </c>
       <c r="D16">
-        <v>0.710343867772707</v>
+        <v>0.7752999183665565</v>
       </c>
       <c r="E16">
-        <v>0.2929466436258181</v>
+        <v>0.3512665105978243</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.74544703168317</v>
+        <v>1.479974379600463</v>
       </c>
       <c r="H16">
-        <v>1.496536409101083</v>
+        <v>0.8828138127790908</v>
       </c>
       <c r="I16">
-        <v>1.193432302838872</v>
+        <v>0.7723935585532189</v>
       </c>
       <c r="J16">
-        <v>0.1551743700487123</v>
+        <v>0.2119708447750241</v>
       </c>
       <c r="K16">
-        <v>1.059808341897366</v>
+        <v>2.29387911681178</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.230432907972521</v>
+        <v>1.005210294971555</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8064380458517917</v>
+        <v>1.752216579989863</v>
       </c>
       <c r="C17">
-        <v>0.2431378920442739</v>
+        <v>0.4816682403536277</v>
       </c>
       <c r="D17">
-        <v>0.7047590828314014</v>
+        <v>0.7467983905059441</v>
       </c>
       <c r="E17">
-        <v>0.2902483005069172</v>
+        <v>0.3378728999193328</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.739880706845724</v>
+        <v>1.440913163189379</v>
       </c>
       <c r="H17">
-        <v>1.496091040785927</v>
+        <v>0.8680731036107829</v>
       </c>
       <c r="I17">
-        <v>1.192869955383649</v>
+        <v>0.7594872621949378</v>
       </c>
       <c r="J17">
-        <v>0.1534173533466401</v>
+        <v>0.2035305733585488</v>
       </c>
       <c r="K17">
-        <v>1.035278272486778</v>
+        <v>2.194667514710517</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.237593788968489</v>
+        <v>1.021684482809576</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7950337669869612</v>
+        <v>1.706959145008085</v>
       </c>
       <c r="C18">
-        <v>0.2401922151268536</v>
+        <v>0.4691852367417084</v>
       </c>
       <c r="D18">
-        <v>0.701581553963706</v>
+        <v>0.7305427530903046</v>
       </c>
       <c r="E18">
-        <v>0.2887111684634576</v>
+        <v>0.3302338895517636</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.736770388813142</v>
+        <v>1.418816384658754</v>
       </c>
       <c r="H18">
-        <v>1.495896772032012</v>
+        <v>0.8597868682747105</v>
       </c>
       <c r="I18">
-        <v>1.192600766727104</v>
+        <v>0.752250916096493</v>
       </c>
       <c r="J18">
-        <v>0.1524150417399568</v>
+        <v>0.1987167194939161</v>
       </c>
       <c r="K18">
-        <v>1.021215359999218</v>
+        <v>2.137900459705691</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.2417811517358</v>
+        <v>1.031360769011634</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7911783409929285</v>
+        <v>1.691671065712001</v>
       </c>
       <c r="C19">
-        <v>0.239196955666273</v>
+        <v>0.4649724905083872</v>
       </c>
       <c r="D19">
-        <v>0.7005116544609962</v>
+        <v>0.7250617302604212</v>
       </c>
       <c r="E19">
-        <v>0.2881932769892899</v>
+        <v>0.3276581701204933</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.735732954096534</v>
+        <v>1.411396483749712</v>
       </c>
       <c r="H19">
-        <v>1.495841624304489</v>
+        <v>0.8570134419090607</v>
       </c>
       <c r="I19">
-        <v>1.192518938237953</v>
+        <v>0.7498320774481684</v>
       </c>
       <c r="J19">
-        <v>0.1520770966641862</v>
+        <v>0.1970935811394412</v>
       </c>
       <c r="K19">
-        <v>1.0164618242637</v>
+        <v>2.118729014068833</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.243210698720134</v>
+        <v>1.034670824751529</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8085515074848502</v>
+        <v>1.760609842724222</v>
       </c>
       <c r="C20">
-        <v>0.2436840669272726</v>
+        <v>0.4839852475345765</v>
       </c>
       <c r="D20">
-        <v>0.7053500019838168</v>
+        <v>0.7498179868073009</v>
       </c>
       <c r="E20">
-        <v>0.2905340030527981</v>
+        <v>0.3392918905257503</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.740463800956377</v>
+        <v>1.445032527723612</v>
       </c>
       <c r="H20">
-        <v>1.496132044523335</v>
+        <v>0.8696221745014157</v>
       </c>
       <c r="I20">
-        <v>1.192924201499252</v>
+        <v>0.7608415988280299</v>
       </c>
       <c r="J20">
-        <v>0.1536035337234125</v>
+        <v>0.2044247749701924</v>
       </c>
       <c r="K20">
-        <v>1.037884765754995</v>
+        <v>2.205197539327372</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.236824398162163</v>
+        <v>1.019909842380443</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8673304831065991</v>
+        <v>1.994912775473551</v>
       </c>
       <c r="C21">
-        <v>0.2589063169565975</v>
+        <v>0.5489094055300541</v>
       </c>
       <c r="D21">
-        <v>0.7220207653467412</v>
+        <v>0.834701696555868</v>
       </c>
       <c r="E21">
-        <v>0.2985764405951556</v>
+        <v>0.3791815135265963</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.757450399741657</v>
+        <v>1.562614130706464</v>
       </c>
       <c r="H21">
-        <v>1.497847501232059</v>
+        <v>0.9143492620409859</v>
       </c>
       <c r="I21">
-        <v>1.194934464257926</v>
+        <v>0.8001324873369384</v>
       </c>
       <c r="J21">
-        <v>0.1588311553363724</v>
+        <v>0.2295631031153675</v>
       </c>
       <c r="K21">
-        <v>1.110414044871646</v>
+        <v>2.499426697635045</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.216187572047978</v>
+        <v>0.9727639372546335</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9060489602027815</v>
+        <v>2.150315698115776</v>
       </c>
       <c r="C22">
-        <v>0.2689643015053491</v>
+        <v>0.592225437319911</v>
       </c>
       <c r="D22">
-        <v>0.7332252692539498</v>
+        <v>0.8915944643142097</v>
       </c>
       <c r="E22">
-        <v>0.303965457050154</v>
+        <v>0.4059196562385949</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.769367880436903</v>
+        <v>1.643212488091308</v>
       </c>
       <c r="H22">
-        <v>1.499520343418254</v>
+        <v>0.945500946944037</v>
       </c>
       <c r="I22">
-        <v>1.196732549886683</v>
+        <v>0.8276824598196129</v>
       </c>
       <c r="J22">
-        <v>0.1623217230893346</v>
+        <v>0.2464161595684402</v>
       </c>
       <c r="K22">
-        <v>1.158226717500497</v>
+        <v>2.694865453624459</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.203312694049096</v>
+        <v>0.9438958945984695</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8853564989311735</v>
+        <v>2.0671476630813</v>
       </c>
       <c r="C23">
-        <v>0.2635861317243098</v>
+        <v>0.5690187476092206</v>
       </c>
       <c r="D23">
-        <v>0.727216909602646</v>
+        <v>0.8610903531376835</v>
       </c>
       <c r="E23">
-        <v>0.301077070758403</v>
+        <v>0.3915831400785663</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.762932514728902</v>
+        <v>1.599828924178752</v>
       </c>
       <c r="H23">
-        <v>1.498577010320787</v>
+        <v>0.9286883339745771</v>
       </c>
       <c r="I23">
-        <v>1.195728514146019</v>
+        <v>0.8127967477249314</v>
       </c>
       <c r="J23">
-        <v>0.1604519543317622</v>
+        <v>0.2373794754990115</v>
       </c>
       <c r="K23">
-        <v>1.132670634700673</v>
+        <v>2.59024285433506</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.21012814386134</v>
+        <v>0.9591173283008203</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8075959212657722</v>
+        <v>1.756814648818448</v>
       </c>
       <c r="C24">
-        <v>0.2434371073785542</v>
+        <v>0.4829374873055201</v>
       </c>
       <c r="D24">
-        <v>0.7050827439074112</v>
+        <v>0.7484524235917434</v>
       </c>
       <c r="E24">
-        <v>0.290404792763411</v>
+        <v>0.3386501753768627</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.740199904294911</v>
+        <v>1.44316904646243</v>
       </c>
       <c r="H24">
-        <v>1.496113314286163</v>
+        <v>0.8689212549718945</v>
       </c>
       <c r="I24">
-        <v>1.192899508275389</v>
+        <v>0.7602287333929283</v>
       </c>
       <c r="J24">
-        <v>0.1535193372192651</v>
+        <v>0.2040203869314752</v>
       </c>
       <c r="K24">
-        <v>1.036706246325963</v>
+        <v>2.200436076389025</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.237172020209016</v>
+        <v>1.020711520291016</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.725023824914274</v>
+        <v>1.430095515600186</v>
       </c>
       <c r="C25">
-        <v>0.222169863869766</v>
+        <v>0.3932173107646406</v>
       </c>
       <c r="D25">
-        <v>0.6825335417140082</v>
+        <v>0.6321288754032821</v>
       </c>
       <c r="E25">
-        <v>0.2794618286708896</v>
+        <v>0.2839814678341952</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.719167285125209</v>
+        <v>1.288126106097579</v>
       </c>
       <c r="H25">
-        <v>1.495821869013156</v>
+        <v>0.8117047533516484</v>
       </c>
       <c r="I25">
-        <v>1.191921711918049</v>
+        <v>0.7105789992602993</v>
       </c>
       <c r="J25">
-        <v>0.1463576620546618</v>
+        <v>0.1695674947089074</v>
       </c>
       <c r="K25">
-        <v>0.9349566990196649</v>
+        <v>1.791080059821468</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.268965670551914</v>
+        <v>1.094753950556743</v>
       </c>
       <c r="O25">
         <v>0</v>
